--- a/Week4/Day3/day3-soluzioni-esercizi.xlsx
+++ b/Week4/Day3/day3-soluzioni-esercizi.xlsx
@@ -3,40 +3,50 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A3BC8B-AE74-294C-8C02-A80878289ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A2F31E-C90F-5D4C-9076-C04A0B656571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7220" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sol-ese-1-giorno3" sheetId="1" r:id="rId1"/>
     <sheet name="sol-2-ese-2-giorno3" sheetId="2" r:id="rId2"/>
+    <sheet name="Grafici" sheetId="4" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$75</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Foglio4!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Foglio4!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Foglio4!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlcn.WorksheetConnection_PivorbaseB2G1591" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$162</definedName>
     <definedName name="codici">#REF!</definedName>
     <definedName name="tabella">'sol-ese-1-giorno3'!$B$27:$G$81</definedName>
@@ -98,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="74">
   <si>
     <t>Venditore</t>
   </si>
@@ -285,6 +295,42 @@
   <si>
     <t>SOLID</t>
   </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>venditore</t>
+  </si>
+  <si>
+    <t>regione</t>
+  </si>
+  <si>
+    <t>settore</t>
+  </si>
+  <si>
+    <t>fatturato</t>
+  </si>
+  <si>
+    <t>bianchi</t>
+  </si>
+  <si>
+    <t>verdi</t>
+  </si>
+  <si>
+    <t>rossi</t>
+  </si>
+  <si>
+    <t>neri</t>
+  </si>
+  <si>
+    <t>lombardia</t>
+  </si>
+  <si>
+    <t>veneto</t>
+  </si>
+  <si>
+    <t>friuli</t>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +341,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +391,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +435,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +487,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,6 +561,11 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Euro" xfId="2" xr:uid="{DF3D080B-F924-F048-BD09-E0DCB8FB97A0}"/>
@@ -515,15 +587,431 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio4!$L$10:$M$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>lombardia</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>veneto</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>friuli</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>lombardia</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>veneto</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>friuli</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>lombardia</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>veneto</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>friuli</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>lombardia</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>veneto</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>friuli</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>bianchi</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>verdi</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>rossi</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>neri</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$N$10:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32920</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31038</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3504-8B48-864A-18A14883B35C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="327435103"/>
+        <c:axId val="1468278735"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="327435103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468278735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1468278735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327435103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Prezzi modelli</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{13D66D47-EBCB-7B4C-95C1-808403C9A258}">
+          <cx:dataPt idx="1"/>
+          <cx:dataPt idx="5"/>
+          <cx:dataPt idx="9"/>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -593,15 +1081,15 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -651,15 +1139,15 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -707,15 +1195,15 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -943,8 +1431,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -955,6 +1523,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
@@ -1008,12 +1588,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1056,6 +1633,11 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -1111,7 +1693,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1286,17 +1868,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -1375,7 +1946,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1600" b="1" cap="all"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2468,7 +3039,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2479,18 +3050,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
@@ -2544,9 +3103,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2589,11 +3151,6 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -2649,7 +3206,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2824,6 +3381,17 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
@@ -2902,7 +3470,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" cap="all"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2974,6 +3542,1020 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" cap="all"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3049,240 +4631,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>84173</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>280580</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>118139</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Grafico 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8D13D7-990E-9361-D919-D1E77968DE3B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11632313" y="4579678"/>
-              <a:ext cx="7757337" cy="4472763"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="it-IT" sz="1100"/>
-                <a:t>Il grafico non è disponibile in questa versione di Excel.
-Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>295348</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>44302</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="8" name="Grafico 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B9DC22-F4F4-AD45-9C81-6227EE0DC9BC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11548139" y="9894186"/>
-              <a:ext cx="7856279" cy="4075814"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="it-IT" sz="1100"/>
-                <a:t>Il grafico non è disponibile in questa versione di Excel.
-Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>711790</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>178981</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>177210</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>147674</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="9" name="Grafico 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70588CD0-C107-1F3B-6837-22D2C37411A9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12259930" y="14680609"/>
-              <a:ext cx="6347047" cy="3808228"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="it-IT" sz="1100"/>
-                <a:t>Il grafico non è disponibile in questa versione di Excel.
-Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3601,6 +4949,364 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160374</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>488211</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>154763</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Grafico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6746D7-86B0-0844-9B59-28025F3C3E5B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1811374" y="444500"/>
+              <a:ext cx="7757337" cy="4472763"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Il grafico non è disponibile in questa versione di Excel.
+Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502979</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119322</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Grafico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9F2D17-C01D-5D4A-BB42-E4BD17D5D192}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1727200" y="5759008"/>
+              <a:ext cx="7856279" cy="4075814"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Il grafico non è disponibile in questa versione di Excel.
+Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>787991</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>67931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>531038</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66159</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Grafico 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29615138-FB18-9047-A37C-F8D0D92E74AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2438991" y="10545431"/>
+              <a:ext cx="6347047" cy="3808228"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Il grafico non è disponibile in questa versione di Excel.
+Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Grafico 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9793FCF-1FD0-6C4C-B8B1-439C23D383C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15684500" y="381000"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Il grafico non è disponibile in questa versione di Excel.
+Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26427</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>810451</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>178681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C876F7A8-5397-5920-63D3-63D983D73C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3932,8 +5638,8 @@
   </sheetPr>
   <dimension ref="B2:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:X53"/>
+    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7679,4 +9385,3339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CE5780-33B7-E545-B0FC-87D324EDF7D0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A2957-AA6F-AD4C-A19E-3EDB12C78799}">
+  <dimension ref="A1:P158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="173" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="41">
+        <v>44008</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="41">
+        <v>44008</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="41">
+        <v>44008</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="41">
+        <v>44011</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2240</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="41">
+        <v>44011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>10160</v>
+      </c>
+      <c r="L6" s="42">
+        <v>44074</v>
+      </c>
+      <c r="M6" t="str">
+        <f>VLOOKUP($L$6,$A$2:$F$158,2)</f>
+        <v>Verdi</v>
+      </c>
+      <c r="N6" t="str">
+        <f>VLOOKUP($L$6,$A$2:$F$158,3)</f>
+        <v>Lombardia</v>
+      </c>
+      <c r="O6" t="str">
+        <f>VLOOKUP($L$6,$A$2:$F$158,4)</f>
+        <v>Cancelleria</v>
+      </c>
+      <c r="P6">
+        <f>VLOOKUP($L$6,$A$2:$F$158,6)</f>
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="41">
+        <v>44011</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="41">
+        <v>44011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="41">
+        <v>44013</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>6420</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="41">
+        <v>44014</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>2840</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Bianchi",$C$2:$C$158,"Lombardia")</f>
+        <v>39950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="41">
+        <v>44015</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>1420</v>
+      </c>
+      <c r="M11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="43">
+        <f>SUMIFS(F2:F158,B2:B158,"Bianchi",C2:C158,"Veneto")</f>
+        <v>70478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="41">
+        <v>44018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>210</v>
+      </c>
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="43">
+        <f>SUMIFS(F3:F159,B3:B159,"Bianchi",C3:C159,"Veneto")</f>
+        <v>70478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="41">
+        <v>44018</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>2900</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Lombardia")</f>
+        <v>37960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="41">
+        <v>44018</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>350</v>
+      </c>
+      <c r="M14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Veneto")</f>
+        <v>40174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="41">
+        <v>44019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1500</v>
+      </c>
+      <c r="M15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Friuli")</f>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="41">
+        <v>44019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5120</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Rossi",$C$2:$C$158,"Lombardia")</f>
+        <v>32920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="41">
+        <v>44020</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>1204</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Veneto")</f>
+        <v>40174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="41">
+        <v>44021</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3400</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Friuli")</f>
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="41">
+        <v>44022</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>3540</v>
+      </c>
+      <c r="L19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Neri",$C$2:$C$158,"Lombardia")</f>
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="41">
+        <v>44025</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1504</v>
+      </c>
+      <c r="M20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Neri",$C$2:$C$158,"Veneto")</f>
+        <v>31038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="41">
+        <v>44025</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>330</v>
+      </c>
+      <c r="M21" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Neri",$C$2:$C$158,"Friuli")</f>
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="41">
+        <v>44026</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="41">
+        <v>44027</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="41">
+        <v>44027</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="41">
+        <v>44027</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="41">
+        <v>44028</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="41">
+        <v>44028</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="41">
+        <v>44028</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="41">
+        <v>44029</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="41">
+        <v>44029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="41">
+        <v>44029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>10160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="41">
+        <v>44029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="41">
+        <v>44030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="41">
+        <v>44032</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="41">
+        <v>44032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="41">
+        <v>44032</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="41">
+        <v>44033</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="41">
+        <v>44033</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="41">
+        <v>44033</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="41">
+        <v>44034</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="41">
+        <v>44034</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="41">
+        <v>44034</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="41">
+        <v>44034</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="41">
+        <v>44035</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="41">
+        <v>44035</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="41">
+        <v>44035</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="41">
+        <v>44036</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="41">
+        <v>44036</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="41">
+        <v>44036</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="41">
+        <v>44036</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="41">
+        <v>44037</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="41">
+        <v>44037</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="41">
+        <v>44039</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>11360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="41">
+        <v>44039</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="41">
+        <v>44039</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="41">
+        <v>44039</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="41">
+        <v>44039</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="41">
+        <v>44040</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>10160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="41">
+        <v>44040</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="41">
+        <v>44040</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="41">
+        <v>44040</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="41">
+        <v>44040</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="41">
+        <v>44041</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="41">
+        <v>44041</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="41">
+        <v>44041</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="41">
+        <v>44041</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="41">
+        <v>44041</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="41">
+        <v>44043</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="41">
+        <v>44043</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="41">
+        <v>44043</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="41">
+        <v>44043</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="41">
+        <v>44043</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="41">
+        <v>44043</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="41">
+        <v>44043</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="41">
+        <v>44046</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="41">
+        <v>44046</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>10192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="41">
+        <v>44046</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="41">
+        <v>44047</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="41">
+        <v>44047</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="41">
+        <v>44047</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="41">
+        <v>44048</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="41">
+        <v>44048</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="41">
+        <v>44049</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="41">
+        <v>44049</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="41">
+        <v>44049</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="41">
+        <v>44050</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="41">
+        <v>44050</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="41">
+        <v>44050</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="41">
+        <v>44050</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="41">
+        <v>44053</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="41">
+        <v>44053</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="41">
+        <v>44053</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="41">
+        <v>44054</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="41">
+        <v>44055</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="41">
+        <v>44056</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="41">
+        <v>44057</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="41">
+        <v>44061</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>11360</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="41">
+        <v>44061</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="41">
+        <v>44061</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="41">
+        <v>44061</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="41">
+        <v>44062</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="41">
+        <v>44062</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="41">
+        <v>44062</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="41">
+        <v>44062</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="41">
+        <v>44067</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="41">
+        <v>44067</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="41">
+        <v>44067</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="41">
+        <v>44068</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="41">
+        <v>44068</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="41">
+        <v>44069</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="41">
+        <v>44069</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+      <c r="F111">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="41">
+        <v>44069</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="41">
+        <v>44070</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="41">
+        <v>44070</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="41">
+        <v>44070</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="41">
+        <v>44070</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="41">
+        <v>44074</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="41">
+        <v>44074</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="41">
+        <v>44074</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="41">
+        <v>44075</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="41">
+        <v>44076</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="41">
+        <v>44076</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="41">
+        <v>44076</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="41">
+        <v>44077</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="41">
+        <v>44077</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="41">
+        <v>44078</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="41">
+        <v>44078</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="41">
+        <v>44078</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="41">
+        <v>44081</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="41">
+        <v>44081</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="41">
+        <v>44081</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="41">
+        <v>44082</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="41">
+        <v>44083</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="41">
+        <v>44083</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="41">
+        <v>44084</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="41">
+        <v>44084</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136">
+        <v>3</v>
+      </c>
+      <c r="F136">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="41">
+        <v>44084</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="41">
+        <v>44085</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="41">
+        <v>44085</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="41">
+        <v>44085</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="41">
+        <v>44088</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+      <c r="F141">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="41">
+        <v>44088</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="41">
+        <v>44088</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="41">
+        <v>44088</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="41">
+        <v>44089</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="41">
+        <v>44089</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="41">
+        <v>44089</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="41">
+        <v>44090</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="41">
+        <v>44090</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="41">
+        <v>44090</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="41">
+        <v>44090</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="41">
+        <v>44091</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="41">
+        <v>44091</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153">
+        <v>4</v>
+      </c>
+      <c r="F153">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="41">
+        <v>44091</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="41">
+        <v>44091</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+      <c r="F155">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="41">
+        <v>44092</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="41">
+        <v>44092</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="41">
+        <v>44092</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+      <c r="F158">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Week4/Day3/day3-soluzioni-esercizi.xlsx
+++ b/Week4/Day3/day3-soluzioni-esercizi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A2F31E-C90F-5D4C-9076-C04A0B656571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE959C9-7EEA-FE4C-988B-2511EF912A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,36 +15,44 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$75</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Foglio4!$M$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Foglio4!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Foglio4!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Foglio4!$M$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Foglio4!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Foglio4!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.28" hidden="1">Foglio4!$L$10:$M$21</definedName>
     <definedName name="_xlchart.v1.29" hidden="1">Foglio4!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Foglio4!$L$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Foglio4!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Foglio4!$Q$10:$Q$17</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Foglio4!$S$10:$S$17</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Foglio4!$Q$10:$R$17</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Foglio4!$S$10:$S$17</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Foglio4!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Foglio4!$Q$10:$R$17</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Foglio4!$S$10:$S$17</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Foglio4!$M$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlcn.WorksheetConnection_PivorbaseB2G1591" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$162</definedName>
@@ -108,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="74">
   <si>
     <t>Venditore</t>
   </si>
@@ -602,6 +610,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Fatturato per venditore</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> e per regione</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -633,7 +671,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16652777777777777"/>
+          <c:y val="0.17168999708369789"/>
+          <c:w val="0.79736111111111108"/>
+          <c:h val="0.52189778361038208"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -651,6 +699,179 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3504-8B48-864A-18A14883B35C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-3504-8B48-864A-18A14883B35C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-3504-8B48-864A-18A14883B35C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3504-8B48-864A-18A14883B35C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-3504-8B48-864A-18A14883B35C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3504-8B48-864A-18A14883B35C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-3504-8B48-864A-18A14883B35C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3504-8B48-864A-18A14883B35C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-3504-8B48-864A-18A14883B35C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>Foglio4!$L$10:$M$21</c:f>
@@ -927,15 +1148,592 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Fatturato per regione e per venditore</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio4!$T$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fatturato</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BCED-D845-93E5-88CC8F26A56E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-BCED-D845-93E5-88CC8F26A56E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BCED-D845-93E5-88CC8F26A56E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BCED-D845-93E5-88CC8F26A56E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BCED-D845-93E5-88CC8F26A56E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-BCED-D845-93E5-88CC8F26A56E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BCED-D845-93E5-88CC8F26A56E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-BCED-D845-93E5-88CC8F26A56E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BCED-D845-93E5-88CC8F26A56E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio4!$R$10:$S$21</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>bianchi</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>verdi</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>rossi</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>neri</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>bianchi</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>verdi</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>rossi</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>neri</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>bianchi</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>verdi</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>rossi</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>neri</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>lombardia</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v> veneto </c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>friuli</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio4!$T$10:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>39950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70478</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCED-D845-93E5-88CC8F26A56E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1717937727"/>
+        <c:axId val="1717706607"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1717937727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717706607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1717706607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1717937727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1008,10 +1806,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1086,10 +1884,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1144,10 +1942,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1200,10 +1998,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1511,6 +2309,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
   <cs:axisTitle>
@@ -4058,6 +4896,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5309,6 +6650,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>74145</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>159007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>131405</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Grafico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DCBA50-F8BD-3A98-0680-74925D46F63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9404,10 +10781,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A2957-AA6F-AD4C-A19E-3EDB12C78799}">
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="173" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="173" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9415,9 +10792,11 @@
     <col min="1" max="1" width="11.1640625" style="41" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>14</v>
       </c>
@@ -9437,7 +10816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="41">
         <v>44008</v>
       </c>
@@ -9457,7 +10836,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="41">
         <v>44008</v>
       </c>
@@ -9477,7 +10856,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="41">
         <v>44008</v>
       </c>
@@ -9497,7 +10876,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
         <v>44011</v>
       </c>
@@ -9532,7 +10911,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="41">
         <v>44011</v>
       </c>
@@ -9571,7 +10950,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="41">
         <v>44011</v>
       </c>
@@ -9591,7 +10970,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="41">
         <v>44011</v>
       </c>
@@ -9611,7 +10990,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="41">
         <v>44013</v>
       </c>
@@ -9639,8 +11018,17 @@
       <c r="N9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="41">
         <v>44014</v>
       </c>
@@ -9669,8 +11057,18 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Bianchi",$C$2:$C$158,"Lombardia")</f>
         <v>39950</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Bianchi",$C$2:$C$158,"Lombardia")</f>
+        <v>39950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="41">
         <v>44015</v>
       </c>
@@ -9696,8 +11094,15 @@
         <f>SUMIFS(F2:F158,B2:B158,"Bianchi",C2:C158,"Veneto")</f>
         <v>70478</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Lombardia")</f>
+        <v>37960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="41">
         <v>44018</v>
       </c>
@@ -9723,8 +11128,15 @@
         <f>SUMIFS(F3:F159,B3:B159,"Bianchi",C3:C159,"Veneto")</f>
         <v>70478</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T12" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Rossi",$C$2:$C$158,"Lombardia")</f>
+        <v>32920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="41">
         <v>44018</v>
       </c>
@@ -9753,8 +11165,15 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Lombardia")</f>
         <v>37960</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S13" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Neri",$C$2:$C$158,"Lombardia")</f>
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="41">
         <v>44018</v>
       </c>
@@ -9780,8 +11199,18 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Veneto")</f>
         <v>40174</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" s="43">
+        <v>70478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="41">
         <v>44019</v>
       </c>
@@ -9807,8 +11236,16 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Friuli")</f>
         <v>44030</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" s="43">
+        <v>40174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="41">
         <v>44019</v>
       </c>
@@ -9837,8 +11274,16 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Rossi",$C$2:$C$158,"Lombardia")</f>
         <v>32920</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" s="43">
+        <v>40174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="41">
         <v>44020</v>
       </c>
@@ -9864,8 +11309,16 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Veneto")</f>
         <v>40174</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="43">
+        <v>31038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="41">
         <v>44021</v>
       </c>
@@ -9891,8 +11344,18 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Verdi",$C$2:$C$158,"Friuli")</f>
         <v>44030</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q18" s="43"/>
+      <c r="R18" t="s">
+        <v>73</v>
+      </c>
+      <c r="S18" t="s">
+        <v>67</v>
+      </c>
+      <c r="T18" s="43">
+        <v>70478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="41">
         <v>44022</v>
       </c>
@@ -9921,8 +11384,15 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Neri",$C$2:$C$158,"Lombardia")</f>
         <v>9377</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q19" s="43"/>
+      <c r="S19" t="s">
+        <v>68</v>
+      </c>
+      <c r="T19" s="43">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="41">
         <v>44025</v>
       </c>
@@ -9948,8 +11418,15 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Neri",$C$2:$C$158,"Veneto")</f>
         <v>31038</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q20" s="43"/>
+      <c r="S20" t="s">
+        <v>69</v>
+      </c>
+      <c r="T20" s="43">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="41">
         <v>44025</v>
       </c>
@@ -9975,8 +11452,16 @@
         <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Neri",$C$2:$C$158,"Friuli")</f>
         <v>45120</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q21" s="43"/>
+      <c r="S21" t="s">
+        <v>70</v>
+      </c>
+      <c r="T21" s="43">
+        <f>SUMIFS($F$2:$F$158,$B$2:$B$158,"Neri",$C$2:$C$158,"Friuli")</f>
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="41">
         <v>44026</v>
       </c>
@@ -9996,7 +11481,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="41">
         <v>44027</v>
       </c>
@@ -10016,7 +11501,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="41">
         <v>44027</v>
       </c>
@@ -10036,7 +11521,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="41">
         <v>44027</v>
       </c>
@@ -10056,7 +11541,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="41">
         <v>44028</v>
       </c>
@@ -10076,7 +11561,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="41">
         <v>44028</v>
       </c>
@@ -10096,7 +11581,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="41">
         <v>44028</v>
       </c>
@@ -10116,7 +11601,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="41">
         <v>44029</v>
       </c>
@@ -10136,7 +11621,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="41">
         <v>44029</v>
       </c>
@@ -10156,7 +11641,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="41">
         <v>44029</v>
       </c>
@@ -10176,7 +11661,7 @@
         <v>10160</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="41">
         <v>44029</v>
       </c>

--- a/Week4/Day3/day3-soluzioni-esercizi.xlsx
+++ b/Week4/Day3/day3-soluzioni-esercizi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE959C9-7EEA-FE4C-988B-2511EF912A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE179A-EF48-1442-8AA1-F2761C09863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Fatturato per venditore</a:t>
+              <a:t>fatturato per venditore</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
@@ -10784,7 +10784,7 @@
   <dimension ref="A1:T158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K10" zoomScale="173" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Week4/Day3/day3-soluzioni-esercizi.xlsx
+++ b/Week4/Day3/day3-soluzioni-esercizi.xlsx
@@ -3,52 +3,48 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FE179A-EF48-1442-8AA1-F2761C09863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BCD464-6336-8043-9834-4800B7DBDA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sol-ese-1-giorno3" sheetId="1" r:id="rId1"/>
     <sheet name="sol-2-ese-2-giorno3" sheetId="2" r:id="rId2"/>
     <sheet name="Grafici" sheetId="4" r:id="rId3"/>
-    <sheet name="Foglio4" sheetId="5" r:id="rId4"/>
+    <sheet name="Grafici-2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$75</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Foglio4!$M$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Foglio4!$L$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Foglio4!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Foglio4!$L$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Foglio4!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Foglio4!$M$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Foglio4!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Foglio4!$L$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Foglio4!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Foglio4!$L$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Grafici-2'!$M$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Grafici-2'!$Q$10:$Q$17</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Grafici-2'!$S$10:$S$17</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Foglio4!$Q$10:$Q$17</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Foglio4!$S$10:$S$17</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Foglio4!$Q$10:$R$17</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Foglio4!$S$10:$S$17</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Foglio4!$L$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Foglio4!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Foglio4!$Q$10:$R$17</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Foglio4!$S$10:$S$17</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Foglio4!$M$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Foglio4!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Grafici-2'!$Q$10:$R$17</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Grafici-2'!$S$10:$S$17</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Grafici-2'!$M$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
@@ -874,7 +870,7 @@
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Foglio4!$L$10:$M$21</c:f>
+              <c:f>'Grafici-2'!$L$10:$M$21</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -934,7 +930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio4!$N$10:$N$21</c:f>
+              <c:f>'Grafici-2'!$N$10:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1262,7 +1258,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio4!$T$9</c:f>
+              <c:f>'Grafici-2'!$T$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1454,7 +1450,7 @@
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Foglio4!$R$10:$S$21</c:f>
+              <c:f>'Grafici-2'!$R$10:$S$21</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1511,7 +1507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio4!$T$10:$T$21</c:f>
+              <c:f>'Grafici-2'!$T$10:$T$21</c:f>
               <c:numCache>
                 <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1806,10 +1802,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1884,10 +1880,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1942,10 +1938,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1998,10 +1994,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7015,8 +7011,8 @@
   </sheetPr>
   <dimension ref="B2:N162"/>
   <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G162"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7031,7 +7027,7 @@
     <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
     <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7124,7 +7120,7 @@
         <v>750</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>6</v>
@@ -7133,8 +7129,8 @@
         <v>13</v>
       </c>
       <c r="L6" s="10">
-        <f>SUMIFS(G6:G162,C6:C162,"Neri",D6:D162,"Veneto",E6:E162,"Cancelleria")</f>
-        <v>6288</v>
+        <f>SUMIFS(G6:G162,C6:C162,I6,D6:D162,J6,E6:E162,K6)</f>
+        <v>11818</v>
       </c>
       <c r="M6" s="2">
         <f>COUNTIFS(C6:C162,"Neri",D6:D162,"Veneto",E6:E162,"Cancelleria")</f>
@@ -10290,7 +10286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD024DC4-1ADE-344B-9BB6-49FBBB6BEACF}">
   <dimension ref="B10:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -10783,8 +10779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A2957-AA6F-AD4C-A19E-3EDB12C78799}">
   <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="173" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="K1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Week4/Day3/day3-soluzioni-esercizi.xlsx
+++ b/Week4/Day3/day3-soluzioni-esercizi.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BCD464-6336-8043-9834-4800B7DBDA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF1D29-CA56-B245-BC72-43B2E2D99D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sol-ese-1-giorno3" sheetId="1" r:id="rId1"/>
-    <sheet name="sol-2-ese-2-giorno3" sheetId="2" r:id="rId2"/>
-    <sheet name="Grafici" sheetId="4" r:id="rId3"/>
-    <sheet name="Grafici-2" sheetId="5" r:id="rId4"/>
+    <sheet name="pivot" sheetId="7" r:id="rId2"/>
+    <sheet name="sol-2-ese-2-giorno3" sheetId="2" r:id="rId3"/>
+    <sheet name="Grafici" sheetId="4" r:id="rId4"/>
+    <sheet name="Grafici-2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$75</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
@@ -36,15 +37,11 @@
     <definedName name="_xlchart.v1.25" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.26" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
     <definedName name="_xlchart.v1.27" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Grafici-2'!$Q$10:$Q$17</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Grafici-2'!$S$10:$S$17</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Grafici-2'!$M$10:$M$21</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Grafici-2'!$Q$10:$R$17</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Grafici-2'!$S$10:$S$17</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Grafici-2'!$M$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
@@ -53,10 +50,22 @@
     <definedName name="_xlchart.v1.9" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlcn.WorksheetConnection_PivorbaseB2G1591" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$162</definedName>
     <definedName name="codici">#REF!</definedName>
+    <definedName name="FiltroDati_Settore">#N/A</definedName>
     <definedName name="tabella">'sol-ese-1-giorno3'!$B$27:$G$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="19" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
       <x15:dataModel>
         <x15:modelTables>
@@ -112,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="78">
   <si>
     <t>Venditore</t>
   </si>
@@ -335,6 +344,18 @@
   <si>
     <t>friuli</t>
   </si>
+  <si>
+    <t>Etichette di riga</t>
+  </si>
+  <si>
+    <t>Totale complessivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somma di Fatturato </t>
+  </si>
+  <si>
+    <t>Etichette di colonna</t>
+  </si>
 </sst>
 </file>
 
@@ -491,7 +512,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -570,6 +591,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Euro" xfId="2" xr:uid="{DF3D080B-F924-F048-BD09-E0DCB8FB97A0}"/>
@@ -592,6 +615,754 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[day3-soluzioni-esercizi.xlsx]pivot!Tabella pivot12</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivot!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Friuli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pivot!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bianchi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neri</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rossi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verdi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pivot!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3990</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3A3-7040-A0C4-53555B12FB69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivot!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lombardia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pivot!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bianchi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neri</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rossi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verdi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pivot!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3A3-7040-A0C4-53555B12FB69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivot!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trentino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pivot!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bianchi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neri</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rossi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verdi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pivot!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D3A3-7040-A0C4-53555B12FB69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>pivot!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Veneto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>pivot!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Bianchi</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neri</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rossi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Verdi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>pivot!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D3A3-7040-A0C4-53555B12FB69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1469676191"/>
+        <c:axId val="1468652239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1469676191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468652239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1468652239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469676191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1144,7 +1915,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1938,10 +2709,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2345,7 +3116,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2856,7 +4170,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3364,7 +4678,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3872,7 +5186,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4380,7 +5694,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4891,7 +6205,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5394,7 +6708,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5972,6 +7286,125 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34A194A-30FC-D629-AA4F-741C7C229417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15869</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Settore">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7BD7BE-517E-6B50-1E9C-4AF4B681B4BB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Settore"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5270500" y="2921000"/>
+              <a:ext cx="1828800" cy="2428869"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Questa forma rappresenta un filtro dei dati. I filtri dei dati sono supportati in Excel 2010 o versione successiva.
+Se la forma è stata modificata in una versione precedente di Excel o se la cartella di lavoro è stata salvata in Excel 2003 o versioni precedenti, non è possibile usare il filtro dei dati.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6291,7 +7724,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6529,16 +7962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -6574,7 +8007,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15684500" y="381000"/>
+              <a:off x="12306300" y="584200"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6608,7 +8041,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6683,6 +8116,1473 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autore" refreshedDate="44853.735732754627" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{402FAD62-3C92-2741-987B-602B8F3317AC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B5:G162" sheet="sol-ese-1-giorno3"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Data" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-06-26T00:00:00" maxDate="2020-09-19T00:00:00"/>
+    </cacheField>
+    <cacheField name="Venditore" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Bianchi"/>
+        <s v="Verdi"/>
+        <s v="Rossi"/>
+        <s v="Neri"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Regione" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Lombardia"/>
+        <s v="Veneto"/>
+        <s v="Friuli"/>
+        <s v="Trentino"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Settore" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Cancelleria"/>
+        <s v="Informatica"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="codice prodotto" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Fatturato " numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="11360"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="421687324"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="157">
+  <r>
+    <d v="2020-06-26T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="750"/>
+  </r>
+  <r>
+    <d v="2020-06-26T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="280"/>
+  </r>
+  <r>
+    <d v="2020-06-26T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1650"/>
+  </r>
+  <r>
+    <d v="2020-06-29T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2240"/>
+  </r>
+  <r>
+    <d v="2020-06-29T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="10160"/>
+  </r>
+  <r>
+    <d v="2020-06-29T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="302"/>
+  </r>
+  <r>
+    <d v="2020-06-29T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="840"/>
+  </r>
+  <r>
+    <d v="2020-07-01T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="6420"/>
+  </r>
+  <r>
+    <d v="2020-07-02T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2840"/>
+  </r>
+  <r>
+    <d v="2020-07-03T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1420"/>
+  </r>
+  <r>
+    <d v="2020-07-06T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <d v="2020-07-06T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2900"/>
+  </r>
+  <r>
+    <d v="2020-07-06T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <d v="2020-07-07T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <d v="2020-07-07T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="5120"/>
+  </r>
+  <r>
+    <d v="2020-07-08T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1204"/>
+  </r>
+  <r>
+    <d v="2020-07-09T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3400"/>
+  </r>
+  <r>
+    <d v="2020-07-10T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="3540"/>
+  </r>
+  <r>
+    <d v="2020-07-13T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1504"/>
+  </r>
+  <r>
+    <d v="2020-07-13T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="330"/>
+  </r>
+  <r>
+    <d v="2020-07-14T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="6240"/>
+  </r>
+  <r>
+    <d v="2020-07-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1260"/>
+  </r>
+  <r>
+    <d v="2020-07-15T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="4800"/>
+  </r>
+  <r>
+    <d v="2020-07-15T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1520"/>
+  </r>
+  <r>
+    <d v="2020-07-16T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="985"/>
+  </r>
+  <r>
+    <d v="2020-07-16T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="1680"/>
+  </r>
+  <r>
+    <d v="2020-07-16T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1200"/>
+  </r>
+  <r>
+    <d v="2020-07-17T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="750"/>
+  </r>
+  <r>
+    <d v="2020-07-17T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="280"/>
+  </r>
+  <r>
+    <d v="2020-07-17T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="10160"/>
+  </r>
+  <r>
+    <d v="2020-07-17T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1650"/>
+  </r>
+  <r>
+    <d v="2020-07-18T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="302"/>
+  </r>
+  <r>
+    <d v="2020-07-20T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2240"/>
+  </r>
+  <r>
+    <d v="2020-07-20T00:00:00"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="6420"/>
+  </r>
+  <r>
+    <d v="2020-07-20T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="840"/>
+  </r>
+  <r>
+    <d v="2020-07-21T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1420"/>
+  </r>
+  <r>
+    <d v="2020-07-21T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2840"/>
+  </r>
+  <r>
+    <d v="2020-07-21T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="350"/>
+  </r>
+  <r>
+    <d v="2020-07-22T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="440"/>
+  </r>
+  <r>
+    <d v="2020-07-22T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <d v="2020-07-22T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="2900"/>
+  </r>
+  <r>
+    <d v="2020-07-22T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="5120"/>
+  </r>
+  <r>
+    <d v="2020-07-23T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1204"/>
+  </r>
+  <r>
+    <d v="2020-07-23T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3400"/>
+  </r>
+  <r>
+    <d v="2020-07-23T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="3540"/>
+  </r>
+  <r>
+    <d v="2020-07-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="6240"/>
+  </r>
+  <r>
+    <d v="2020-07-24T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1504"/>
+  </r>
+  <r>
+    <d v="2020-07-24T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="840"/>
+  </r>
+  <r>
+    <d v="2020-07-24T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="210"/>
+  </r>
+  <r>
+    <d v="2020-07-25T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1390"/>
+  </r>
+  <r>
+    <d v="2020-07-25T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="490"/>
+  </r>
+  <r>
+    <d v="2020-07-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="11360"/>
+  </r>
+  <r>
+    <d v="2020-07-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="3440"/>
+  </r>
+  <r>
+    <d v="2020-07-27T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="750"/>
+  </r>
+  <r>
+    <d v="2020-07-27T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2540"/>
+  </r>
+  <r>
+    <d v="2020-07-27T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="920"/>
+  </r>
+  <r>
+    <d v="2020-07-28T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="10160"/>
+  </r>
+  <r>
+    <d v="2020-07-28T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1580"/>
+  </r>
+  <r>
+    <d v="2020-07-28T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="2548"/>
+  </r>
+  <r>
+    <d v="2020-07-28T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2555"/>
+  </r>
+  <r>
+    <d v="2020-07-28T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1560"/>
+  </r>
+  <r>
+    <d v="2020-07-29T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="7400"/>
+  </r>
+  <r>
+    <d v="2020-07-29T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="5800"/>
+  </r>
+  <r>
+    <d v="2020-07-29T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <d v="2020-07-29T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="460"/>
+  </r>
+  <r>
+    <d v="2020-07-29T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <d v="2020-07-31T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8480"/>
+  </r>
+  <r>
+    <d v="2020-07-31T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2800"/>
+  </r>
+  <r>
+    <d v="2020-07-31T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="4560"/>
+  </r>
+  <r>
+    <d v="2020-07-31T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1590"/>
+  </r>
+  <r>
+    <d v="2020-07-31T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <d v="2020-07-31T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2555"/>
+  </r>
+  <r>
+    <d v="2020-07-31T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1220"/>
+  </r>
+  <r>
+    <d v="2020-08-03T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1580"/>
+  </r>
+  <r>
+    <d v="2020-08-03T00:00:00"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="10192"/>
+  </r>
+  <r>
+    <d v="2020-08-03T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="460"/>
+  </r>
+  <r>
+    <d v="2020-08-04T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="5844"/>
+  </r>
+  <r>
+    <d v="2020-08-04T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="6000"/>
+  </r>
+  <r>
+    <d v="2020-08-04T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <d v="2020-08-05T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="550"/>
+  </r>
+  <r>
+    <d v="2020-08-05T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="2800"/>
+  </r>
+  <r>
+    <d v="2020-08-06T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1590"/>
+  </r>
+  <r>
+    <d v="2020-08-06T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2800"/>
+  </r>
+  <r>
+    <d v="2020-08-06T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1590"/>
+  </r>
+  <r>
+    <d v="2020-08-07T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="8000"/>
+  </r>
+  <r>
+    <d v="2020-08-07T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8800"/>
+  </r>
+  <r>
+    <d v="2020-08-07T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <d v="2020-08-07T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1220"/>
+  </r>
+  <r>
+    <d v="2020-08-10T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="5800"/>
+  </r>
+  <r>
+    <d v="2020-08-10T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <d v="2020-08-10T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="9500"/>
+  </r>
+  <r>
+    <d v="2020-08-11T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="3200"/>
+  </r>
+  <r>
+    <d v="2020-08-12T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2800"/>
+  </r>
+  <r>
+    <d v="2020-08-13T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="7700"/>
+  </r>
+  <r>
+    <d v="2020-08-14T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <d v="2020-08-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="11360"/>
+  </r>
+  <r>
+    <d v="2020-08-18T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="8800"/>
+  </r>
+  <r>
+    <d v="2020-08-18T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="750"/>
+  </r>
+  <r>
+    <d v="2020-08-18T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2540"/>
+  </r>
+  <r>
+    <d v="2020-08-19T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="5400"/>
+  </r>
+  <r>
+    <d v="2020-08-19T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="6840"/>
+  </r>
+  <r>
+    <d v="2020-08-19T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="3260"/>
+  </r>
+  <r>
+    <d v="2020-08-19T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <d v="2020-08-24T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <d v="2020-08-24T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <d v="2020-08-24T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1800"/>
+  </r>
+  <r>
+    <d v="2020-08-25T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="7800"/>
+  </r>
+  <r>
+    <d v="2020-08-25T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <d v="2020-08-26T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1850"/>
+  </r>
+  <r>
+    <d v="2020-08-26T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <d v="2020-08-26T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <d v="2020-08-27T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="690"/>
+  </r>
+  <r>
+    <d v="2020-08-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <d v="2020-08-27T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="7700"/>
+  </r>
+  <r>
+    <d v="2020-08-27T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2800"/>
+  </r>
+  <r>
+    <d v="2020-08-31T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8500"/>
+  </r>
+  <r>
+    <d v="2020-08-31T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="250"/>
+  </r>
+  <r>
+    <d v="2020-08-31T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2540"/>
+  </r>
+  <r>
+    <d v="2020-09-01T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="650"/>
+  </r>
+  <r>
+    <d v="2020-09-02T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2400"/>
+  </r>
+  <r>
+    <d v="2020-09-02T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="320"/>
+  </r>
+  <r>
+    <d v="2020-09-02T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="6500"/>
+  </r>
+  <r>
+    <d v="2020-09-03T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <d v="2020-09-03T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <d v="2020-09-04T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <d v="2020-09-04T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <d v="2020-09-04T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1800"/>
+  </r>
+  <r>
+    <d v="2020-09-07T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="8000"/>
+  </r>
+  <r>
+    <d v="2020-09-07T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="5100"/>
+  </r>
+  <r>
+    <d v="2020-09-07T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="650"/>
+  </r>
+  <r>
+    <d v="2020-09-08T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="320"/>
+  </r>
+  <r>
+    <d v="2020-09-09T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <d v="2020-09-09T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2840"/>
+  </r>
+  <r>
+    <d v="2020-09-10T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <d v="2020-09-10T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <d v="2020-09-10T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="5550"/>
+  </r>
+  <r>
+    <d v="2020-09-11T00:00:00"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="650"/>
+  </r>
+  <r>
+    <d v="2020-09-11T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2800"/>
+  </r>
+  <r>
+    <d v="2020-09-11T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="690"/>
+  </r>
+  <r>
+    <d v="2020-09-14T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="6500"/>
+  </r>
+  <r>
+    <d v="2020-09-14T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <d v="2020-09-14T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <d v="2020-09-14T00:00:00"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <d v="2020-09-15T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <d v="2020-09-15T00:00:00"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1800"/>
+  </r>
+  <r>
+    <d v="2020-09-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8000"/>
+  </r>
+  <r>
+    <d v="2020-09-16T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="5100"/>
+  </r>
+  <r>
+    <d v="2020-09-16T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="650"/>
+  </r>
+  <r>
+    <d v="2020-09-16T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="320"/>
+  </r>
+  <r>
+    <d v="2020-09-16T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="3500"/>
+  </r>
+  <r>
+    <d v="2020-09-17T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="2840"/>
+  </r>
+  <r>
+    <d v="2020-09-17T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="520"/>
+  </r>
+  <r>
+    <d v="2020-09-17T00:00:00"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="380"/>
+  </r>
+  <r>
+    <d v="2020-09-17T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="5550"/>
+  </r>
+  <r>
+    <d v="2020-09-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="8000"/>
+  </r>
+  <r>
+    <d v="2020-09-18T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="5100"/>
+  </r>
+  <r>
+    <d v="2020-09-18T00:00:00"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="650"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C141B0E-E0EC-B945-89A2-74E23F977219}" name="Tabella pivot12" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somma di Fatturato " fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="FiltroDati_Settore" xr10:uid="{7217F0EF-DDC9-AA4C-ABE1-29BDE12C9914}" sourceName="Settore">
+  <pivotTables>
+    <pivotTable tabId="7" name="Tabella pivot12"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="421687324">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Settore" xr10:uid="{2C16A850-2681-6840-B6E2-D805312E758C}" cache="FiltroDati_Settore" caption="Settore" rowHeight="230716"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7011,8 +9911,8 @@
   </sheetPr>
   <dimension ref="B2:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A5" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10283,6 +13183,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70A202B-F04F-2F4D-9638-E804223DBE4A}">
+  <dimension ref="A3:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45">
+        <v>4970</v>
+      </c>
+      <c r="C5" s="45">
+        <v>5510</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
+        <v>11818</v>
+      </c>
+      <c r="F5" s="45">
+        <v>22298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="45">
+        <v>3990</v>
+      </c>
+      <c r="C6" s="45">
+        <v>3533</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45">
+        <v>6288</v>
+      </c>
+      <c r="F6" s="45">
+        <v>13811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="45">
+        <v>6955</v>
+      </c>
+      <c r="C7" s="45">
+        <v>5800</v>
+      </c>
+      <c r="D7" s="45">
+        <v>3700</v>
+      </c>
+      <c r="E7" s="45">
+        <v>42755</v>
+      </c>
+      <c r="F7" s="45">
+        <v>59210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="45">
+        <v>44030</v>
+      </c>
+      <c r="C8" s="45">
+        <v>27720</v>
+      </c>
+      <c r="D8" s="45">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="45">
+        <v>40174</v>
+      </c>
+      <c r="F8" s="45">
+        <v>112924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="45">
+        <v>59945</v>
+      </c>
+      <c r="C9" s="45">
+        <v>42563</v>
+      </c>
+      <c r="D9" s="45">
+        <v>4700</v>
+      </c>
+      <c r="E9" s="45">
+        <v>101035</v>
+      </c>
+      <c r="F9" s="45">
+        <v>208243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD024DC4-1ADE-344B-9BB6-49FBBB6BEACF}">
   <dimension ref="B10:M38"/>
   <sheetViews>
@@ -10760,7 +13815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CE5780-33B7-E545-B0FC-87D324EDF7D0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10775,7 +13830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A2957-AA6F-AD4C-A19E-3EDB12C78799}">
   <dimension ref="A1:T158"/>
   <sheetViews>

--- a/Week4/Day3/day3-soluzioni-esercizi.xlsx
+++ b/Week4/Day3/day3-soluzioni-esercizi.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF1D29-CA56-B245-BC72-43B2E2D99D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D6618-7B22-3445-8D43-FBFD0585FED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sol-ese-1-giorno3" sheetId="1" r:id="rId1"/>
-    <sheet name="pivot" sheetId="7" r:id="rId2"/>
+    <sheet name="pivot-esercizio1" sheetId="7" r:id="rId2"/>
     <sheet name="sol-2-ese-2-giorno3" sheetId="2" r:id="rId3"/>
     <sheet name="Grafici" sheetId="4" r:id="rId4"/>
     <sheet name="Grafici-2" sheetId="5" r:id="rId5"/>
@@ -18,30 +18,32 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$75</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Grafici-2'!$M$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Grafici-2'!$M$10:$M$21</definedName>
     <definedName name="_xlchart.v1.27" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.28" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
     <definedName name="_xlchart.v1.29" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Grafici-2'!$M$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
     <definedName name="_xlchart.v1.31" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Grafici-2'!$M$10:$M$21</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
@@ -51,16 +53,18 @@
     <definedName name="_xlcn.WorksheetConnection_PivorbaseB2G1591" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$162</definedName>
     <definedName name="codici">#REF!</definedName>
     <definedName name="FiltroDati_Settore">#N/A</definedName>
+    <definedName name="FiltroDati_Venditore">#N/A</definedName>
     <definedName name="tabella">'sol-ese-1-giorno3'!$B$27:$G$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId6"/>
+    <pivotCache cacheId="21" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -121,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="80">
   <si>
     <t>Venditore</t>
   </si>
@@ -356,6 +360,12 @@
   <si>
     <t>Etichette di colonna</t>
   </si>
+  <si>
+    <t>FATTURATO PER SETTORE</t>
+  </si>
+  <si>
+    <t>FATTURATO PER CODICE PRODOTTO</t>
+  </si>
 </sst>
 </file>
 
@@ -366,7 +376,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +441,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -470,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -506,13 +523,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -592,14 +689,161 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Euro" xfId="2" xr:uid="{DF3D080B-F924-F048-BD09-E0DCB8FB97A0}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7076741C-D65A-414F-8994-CC4989EEAD3F}"/>
   </tableStyles>
@@ -628,7 +872,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[day3-soluzioni-esercizi.xlsx]pivot!Tabella pivot12</c:name>
+    <c:name>[day3-soluzioni-esercizi.xlsx]pivot-esercizio1!Tabella pivot12</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -870,7 +1114,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot!$B$3:$B$4</c:f>
+              <c:f>'pivot-esercizio1'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -891,7 +1135,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$5:$A$9</c:f>
+              <c:f>'pivot-esercizio1'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -911,9 +1155,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$B$5:$B$9</c:f>
+              <c:f>'pivot-esercizio1'!$B$5:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4970</c:v>
@@ -941,7 +1185,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot!$C$3:$C$4</c:f>
+              <c:f>'pivot-esercizio1'!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -962,7 +1206,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$5:$A$9</c:f>
+              <c:f>'pivot-esercizio1'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -982,9 +1226,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$C$5:$C$9</c:f>
+              <c:f>'pivot-esercizio1'!$C$5:$C$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5510</c:v>
@@ -1012,7 +1256,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot!$D$3:$D$4</c:f>
+              <c:f>'pivot-esercizio1'!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1033,7 +1277,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$5:$A$9</c:f>
+              <c:f>'pivot-esercizio1'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1053,9 +1297,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$D$5:$D$9</c:f>
+              <c:f>'pivot-esercizio1'!$D$5:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="2">
                   <c:v>3700</c:v>
@@ -1077,7 +1321,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>pivot!$E$3:$E$4</c:f>
+              <c:f>'pivot-esercizio1'!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1098,7 +1342,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$5:$A$9</c:f>
+              <c:f>'pivot-esercizio1'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1118,9 +1362,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$E$5:$E$9</c:f>
+              <c:f>'pivot-esercizio1'!$E$5:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>11818</c:v>
@@ -1228,7 +1472,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1363,6 +1607,1113 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[day3-soluzioni-esercizi.xlsx]pivot-esercizio1!Tabella pivot13</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pivot-esercizio1'!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Friuli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pivot-esercizio1'!$K$5:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pivot-esercizio1'!$L$5:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>4970</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDB0-B546-A86C-0F7F44E299EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pivot-esercizio1'!$M$3:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lombardia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pivot-esercizio1'!$K$5:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pivot-esercizio1'!$M$5:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDB0-B546-A86C-0F7F44E299EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pivot-esercizio1'!$N$3:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Veneto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'pivot-esercizio1'!$K$5:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'pivot-esercizio1'!$N$5:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDB0-B546-A86C-0F7F44E299EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="755009023"/>
+        <c:axId val="2027637216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="755009023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027637216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027637216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755009023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1915,7 +3266,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2497,10 +3848,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2651,10 +4002,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2709,10 +4060,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2757,82 +4108,6 @@
       <a:noFill/>
     </a:ln>
   </cx:spPr>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
-      </cx:strDim>
-      <cx:numDim type="size">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              </a:rPr>
-              <a:t>Prezzi modelli</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="treemap" uniqueId="{13D66D47-EBCB-7B4C-95C1-808403C9A258}">
-          <cx:dataPt idx="1"/>
-          <cx:dataPt idx="5"/>
-          <cx:dataPt idx="9"/>
-          <cx:dataLabels pos="ctr">
-            <cx:visibility seriesName="0" categoryName="1" value="0"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:parentLabelLayout val="overlapping"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-    <cx:legend pos="r" align="ctr" overlay="0"/>
-  </cx:chart>
 </cx:chartSpace>
 </file>
 
@@ -3660,6 +4935,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4170,7 +5948,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4678,7 +6456,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5186,7 +6964,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5619,517 +7397,6 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="416">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1">
-          <a:lumMod val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" b="1"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" cap="all"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7332,7 +8599,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>15869</xdr:rowOff>
     </xdr:to>
@@ -7370,7 +8637,121 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5270500" y="2921000"/>
+              <a:off x="6489700" y="2946400"/>
+              <a:ext cx="1828800" cy="2428869"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="it-IT" sz="1100"/>
+                <a:t>Questa forma rappresenta un filtro dei dati. I filtri dei dati sono supportati in Excel 2010 o versione successiva.
+Se la forma è stata modificata in una versione precedente di Excel o se la cartella di lavoro è stata salvata in Excel 2003 o versioni precedenti, non è possibile usare il filtro dei dati.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16328361-38BC-A977-71D5-792320451F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155569</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Venditore">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED8429D-3939-AC4A-AB53-BE04B9A8FDD4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Venditore"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16814800" y="2895600"/>
               <a:ext cx="1828800" cy="2428869"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7646,15 +9027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1006231</xdr:colOff>
+      <xdr:colOff>879231</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>84015</xdr:rowOff>
+      <xdr:rowOff>93784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:colOff>889000</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>82061</xdr:rowOff>
+      <xdr:rowOff>91830</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7690,7 +9071,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8890000" y="6854092"/>
+              <a:off x="8763000" y="6863861"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7960,84 +9341,6 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Grafico 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9793FCF-1FD0-6C4C-B8B1-439C23D383C3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12306300" y="584200"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="it-IT" sz="1100"/>
-                <a:t>Il grafico non è disponibile in questa versione di Excel.
-Se si modifica questa forma o si salva la cartella di lavoro in un formato di file diverso, il grafico verrà danneggiato in modo permanente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8125,7 +9428,65 @@
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Data" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-06-26T00:00:00" maxDate="2020-09-19T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-06-26T00:00:00" maxDate="2020-09-19T00:00:00" count="57">
+        <d v="2020-06-26T00:00:00"/>
+        <d v="2020-06-29T00:00:00"/>
+        <d v="2020-07-01T00:00:00"/>
+        <d v="2020-07-02T00:00:00"/>
+        <d v="2020-07-03T00:00:00"/>
+        <d v="2020-07-06T00:00:00"/>
+        <d v="2020-07-07T00:00:00"/>
+        <d v="2020-07-08T00:00:00"/>
+        <d v="2020-07-09T00:00:00"/>
+        <d v="2020-07-10T00:00:00"/>
+        <d v="2020-07-13T00:00:00"/>
+        <d v="2020-07-14T00:00:00"/>
+        <d v="2020-07-15T00:00:00"/>
+        <d v="2020-07-16T00:00:00"/>
+        <d v="2020-07-17T00:00:00"/>
+        <d v="2020-07-18T00:00:00"/>
+        <d v="2020-07-20T00:00:00"/>
+        <d v="2020-07-21T00:00:00"/>
+        <d v="2020-07-22T00:00:00"/>
+        <d v="2020-07-23T00:00:00"/>
+        <d v="2020-07-24T00:00:00"/>
+        <d v="2020-07-25T00:00:00"/>
+        <d v="2020-07-27T00:00:00"/>
+        <d v="2020-07-28T00:00:00"/>
+        <d v="2020-07-29T00:00:00"/>
+        <d v="2020-07-31T00:00:00"/>
+        <d v="2020-08-03T00:00:00"/>
+        <d v="2020-08-04T00:00:00"/>
+        <d v="2020-08-05T00:00:00"/>
+        <d v="2020-08-06T00:00:00"/>
+        <d v="2020-08-07T00:00:00"/>
+        <d v="2020-08-10T00:00:00"/>
+        <d v="2020-08-11T00:00:00"/>
+        <d v="2020-08-12T00:00:00"/>
+        <d v="2020-08-13T00:00:00"/>
+        <d v="2020-08-14T00:00:00"/>
+        <d v="2020-08-18T00:00:00"/>
+        <d v="2020-08-19T00:00:00"/>
+        <d v="2020-08-24T00:00:00"/>
+        <d v="2020-08-25T00:00:00"/>
+        <d v="2020-08-26T00:00:00"/>
+        <d v="2020-08-27T00:00:00"/>
+        <d v="2020-08-31T00:00:00"/>
+        <d v="2020-09-01T00:00:00"/>
+        <d v="2020-09-02T00:00:00"/>
+        <d v="2020-09-03T00:00:00"/>
+        <d v="2020-09-04T00:00:00"/>
+        <d v="2020-09-07T00:00:00"/>
+        <d v="2020-09-08T00:00:00"/>
+        <d v="2020-09-09T00:00:00"/>
+        <d v="2020-09-10T00:00:00"/>
+        <d v="2020-09-11T00:00:00"/>
+        <d v="2020-09-14T00:00:00"/>
+        <d v="2020-09-15T00:00:00"/>
+        <d v="2020-09-16T00:00:00"/>
+        <d v="2020-09-17T00:00:00"/>
+        <d v="2020-09-18T00:00:00"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Venditore" numFmtId="0">
       <sharedItems count="4">
@@ -8150,7 +9511,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="codice prodotto" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="4"/>
+        <n v="5"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Fatturato " numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="110" maxValue="11360"/>
@@ -8167,1266 +9534,1524 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="157">
   <r>
-    <d v="2020-06-26T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="750"/>
   </r>
   <r>
-    <d v="2020-06-26T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="280"/>
   </r>
   <r>
-    <d v="2020-06-26T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="1650"/>
   </r>
   <r>
-    <d v="2020-06-29T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="2240"/>
   </r>
   <r>
-    <d v="2020-06-29T00:00:00"/>
+    <x v="1"/>
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="10160"/>
   </r>
   <r>
-    <d v="2020-06-29T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="302"/>
   </r>
   <r>
-    <d v="2020-06-29T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="840"/>
   </r>
   <r>
-    <d v="2020-07-01T00:00:00"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="6420"/>
   </r>
   <r>
-    <d v="2020-07-02T00:00:00"/>
+    <x v="3"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="2840"/>
   </r>
   <r>
-    <d v="2020-07-03T00:00:00"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1420"/>
   </r>
   <r>
-    <d v="2020-07-06T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="210"/>
   </r>
   <r>
-    <d v="2020-07-06T00:00:00"/>
+    <x v="5"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="2900"/>
   </r>
   <r>
-    <d v="2020-07-06T00:00:00"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="350"/>
   </r>
   <r>
-    <d v="2020-07-07T00:00:00"/>
+    <x v="6"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1500"/>
   </r>
   <r>
-    <d v="2020-07-07T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="5120"/>
   </r>
   <r>
-    <d v="2020-07-08T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="1204"/>
   </r>
   <r>
-    <d v="2020-07-09T00:00:00"/>
+    <x v="8"/>
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="3400"/>
   </r>
   <r>
-    <d v="2020-07-10T00:00:00"/>
+    <x v="9"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="3540"/>
   </r>
   <r>
-    <d v="2020-07-13T00:00:00"/>
+    <x v="10"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="1504"/>
   </r>
   <r>
-    <d v="2020-07-13T00:00:00"/>
+    <x v="10"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="330"/>
   </r>
   <r>
-    <d v="2020-07-14T00:00:00"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="6240"/>
   </r>
   <r>
-    <d v="2020-07-15T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="1260"/>
   </r>
   <r>
-    <d v="2020-07-15T00:00:00"/>
+    <x v="12"/>
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="4800"/>
   </r>
   <r>
-    <d v="2020-07-15T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="1520"/>
   </r>
   <r>
-    <d v="2020-07-16T00:00:00"/>
+    <x v="13"/>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="985"/>
   </r>
   <r>
-    <d v="2020-07-16T00:00:00"/>
+    <x v="13"/>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="1680"/>
   </r>
   <r>
-    <d v="2020-07-16T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="1200"/>
   </r>
   <r>
-    <d v="2020-07-17T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="750"/>
   </r>
   <r>
-    <d v="2020-07-17T00:00:00"/>
+    <x v="14"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="280"/>
   </r>
   <r>
-    <d v="2020-07-17T00:00:00"/>
+    <x v="14"/>
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="10160"/>
   </r>
   <r>
-    <d v="2020-07-17T00:00:00"/>
+    <x v="14"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="1650"/>
   </r>
   <r>
-    <d v="2020-07-18T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="302"/>
   </r>
   <r>
-    <d v="2020-07-20T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="2240"/>
   </r>
   <r>
-    <d v="2020-07-20T00:00:00"/>
+    <x v="16"/>
     <x v="0"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="6420"/>
   </r>
   <r>
-    <d v="2020-07-20T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="840"/>
   </r>
   <r>
-    <d v="2020-07-21T00:00:00"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1420"/>
   </r>
   <r>
-    <d v="2020-07-21T00:00:00"/>
+    <x v="17"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="2840"/>
   </r>
   <r>
-    <d v="2020-07-21T00:00:00"/>
+    <x v="17"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="350"/>
   </r>
   <r>
-    <d v="2020-07-22T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="440"/>
   </r>
   <r>
-    <d v="2020-07-22T00:00:00"/>
+    <x v="18"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1500"/>
   </r>
   <r>
-    <d v="2020-07-22T00:00:00"/>
+    <x v="18"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="2900"/>
   </r>
   <r>
-    <d v="2020-07-22T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="2"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="5120"/>
   </r>
   <r>
-    <d v="2020-07-23T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="1204"/>
   </r>
   <r>
-    <d v="2020-07-23T00:00:00"/>
+    <x v="19"/>
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="3400"/>
   </r>
   <r>
-    <d v="2020-07-23T00:00:00"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="3540"/>
   </r>
   <r>
-    <d v="2020-07-24T00:00:00"/>
+    <x v="20"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="6240"/>
   </r>
   <r>
-    <d v="2020-07-24T00:00:00"/>
+    <x v="20"/>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="1504"/>
   </r>
   <r>
-    <d v="2020-07-24T00:00:00"/>
+    <x v="20"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="840"/>
   </r>
   <r>
-    <d v="2020-07-24T00:00:00"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="210"/>
   </r>
   <r>
-    <d v="2020-07-25T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="1390"/>
   </r>
   <r>
-    <d v="2020-07-25T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="21"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="490"/>
   </r>
   <r>
-    <d v="2020-07-27T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="11360"/>
   </r>
   <r>
-    <d v="2020-07-27T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="3440"/>
   </r>
   <r>
-    <d v="2020-07-27T00:00:00"/>
+    <x v="22"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="750"/>
   </r>
   <r>
-    <d v="2020-07-27T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="2540"/>
   </r>
   <r>
-    <d v="2020-07-27T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="22"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="920"/>
   </r>
   <r>
-    <d v="2020-07-28T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="10160"/>
   </r>
   <r>
-    <d v="2020-07-28T00:00:00"/>
+    <x v="23"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1580"/>
   </r>
   <r>
-    <d v="2020-07-28T00:00:00"/>
+    <x v="23"/>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="2548"/>
   </r>
   <r>
-    <d v="2020-07-28T00:00:00"/>
+    <x v="23"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="2555"/>
   </r>
   <r>
-    <d v="2020-07-28T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="1560"/>
   </r>
   <r>
-    <d v="2020-07-29T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="2"/>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="7400"/>
   </r>
   <r>
-    <d v="2020-07-29T00:00:00"/>
+    <x v="24"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="5800"/>
   </r>
   <r>
-    <d v="2020-07-29T00:00:00"/>
+    <x v="24"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1500"/>
   </r>
   <r>
-    <d v="2020-07-29T00:00:00"/>
+    <x v="24"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="460"/>
   </r>
   <r>
-    <d v="2020-07-29T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="24"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="700"/>
   </r>
   <r>
-    <d v="2020-07-31T00:00:00"/>
+    <x v="25"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="8480"/>
   </r>
   <r>
-    <d v="2020-07-31T00:00:00"/>
+    <x v="25"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="2800"/>
   </r>
   <r>
-    <d v="2020-07-31T00:00:00"/>
+    <x v="25"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="4560"/>
   </r>
   <r>
-    <d v="2020-07-31T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="1590"/>
   </r>
   <r>
-    <d v="2020-07-31T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="2500"/>
   </r>
   <r>
-    <d v="2020-07-31T00:00:00"/>
+    <x v="25"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="2555"/>
   </r>
   <r>
-    <d v="2020-07-31T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="1220"/>
   </r>
   <r>
-    <d v="2020-08-03T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="1580"/>
   </r>
   <r>
-    <d v="2020-08-03T00:00:00"/>
+    <x v="26"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="10192"/>
   </r>
   <r>
-    <d v="2020-08-03T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="460"/>
   </r>
   <r>
-    <d v="2020-08-04T00:00:00"/>
+    <x v="27"/>
     <x v="3"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="5844"/>
   </r>
   <r>
-    <d v="2020-08-04T00:00:00"/>
+    <x v="27"/>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="6000"/>
   </r>
   <r>
-    <d v="2020-08-04T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="700"/>
   </r>
   <r>
-    <d v="2020-08-05T00:00:00"/>
+    <x v="28"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="550"/>
   </r>
   <r>
-    <d v="2020-08-05T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="2800"/>
   </r>
   <r>
-    <d v="2020-08-06T00:00:00"/>
+    <x v="29"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1590"/>
   </r>
   <r>
-    <d v="2020-08-06T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="2800"/>
   </r>
   <r>
-    <d v="2020-08-06T00:00:00"/>
+    <x v="29"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1590"/>
   </r>
   <r>
-    <d v="2020-08-07T00:00:00"/>
+    <x v="30"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="8000"/>
   </r>
   <r>
-    <d v="2020-08-07T00:00:00"/>
+    <x v="30"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="8800"/>
   </r>
   <r>
-    <d v="2020-08-07T00:00:00"/>
+    <x v="30"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="2500"/>
   </r>
   <r>
-    <d v="2020-08-07T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="1220"/>
   </r>
   <r>
-    <d v="2020-08-10T00:00:00"/>
+    <x v="31"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="5800"/>
   </r>
   <r>
-    <d v="2020-08-10T00:00:00"/>
+    <x v="31"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="1500"/>
   </r>
   <r>
-    <d v="2020-08-10T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="31"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="9500"/>
   </r>
   <r>
-    <d v="2020-08-11T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="32"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="3200"/>
   </r>
   <r>
-    <d v="2020-08-12T00:00:00"/>
+    <x v="33"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="2800"/>
   </r>
   <r>
-    <d v="2020-08-13T00:00:00"/>
+    <x v="34"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="7700"/>
   </r>
   <r>
-    <d v="2020-08-14T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="2500"/>
   </r>
   <r>
-    <d v="2020-08-18T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1"/>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="11360"/>
   </r>
   <r>
-    <d v="2020-08-18T00:00:00"/>
+    <x v="36"/>
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="8800"/>
   </r>
   <r>
-    <d v="2020-08-18T00:00:00"/>
+    <x v="36"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="750"/>
   </r>
   <r>
-    <d v="2020-08-18T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="36"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="2540"/>
   </r>
   <r>
-    <d v="2020-08-19T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1"/>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="5400"/>
   </r>
   <r>
-    <d v="2020-08-19T00:00:00"/>
+    <x v="37"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="6840"/>
   </r>
   <r>
-    <d v="2020-08-19T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="37"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3260"/>
   </r>
   <r>
-    <d v="2020-08-19T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="37"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="3500"/>
   </r>
   <r>
-    <d v="2020-08-24T00:00:00"/>
+    <x v="38"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="800"/>
   </r>
   <r>
-    <d v="2020-08-24T00:00:00"/>
+    <x v="38"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="1500"/>
   </r>
   <r>
-    <d v="2020-08-24T00:00:00"/>
+    <x v="38"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="1800"/>
   </r>
   <r>
-    <d v="2020-08-25T00:00:00"/>
+    <x v="39"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="7800"/>
   </r>
   <r>
-    <d v="2020-08-25T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="110"/>
   </r>
   <r>
-    <d v="2020-08-26T00:00:00"/>
+    <x v="40"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="1850"/>
   </r>
   <r>
-    <d v="2020-08-26T00:00:00"/>
+    <x v="40"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="2000"/>
   </r>
   <r>
-    <d v="2020-08-26T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="40"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="520"/>
   </r>
   <r>
-    <d v="2020-08-27T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="41"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="690"/>
   </r>
   <r>
-    <d v="2020-08-27T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="2500"/>
   </r>
   <r>
-    <d v="2020-08-27T00:00:00"/>
+    <x v="41"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="7700"/>
   </r>
   <r>
-    <d v="2020-08-27T00:00:00"/>
+    <x v="41"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="2800"/>
   </r>
   <r>
-    <d v="2020-08-31T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="2"/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="8500"/>
   </r>
   <r>
-    <d v="2020-08-31T00:00:00"/>
+    <x v="42"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="250"/>
   </r>
   <r>
-    <d v="2020-08-31T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="42"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="2540"/>
   </r>
   <r>
-    <d v="2020-09-01T00:00:00"/>
+    <x v="43"/>
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="650"/>
   </r>
   <r>
-    <d v="2020-09-02T00:00:00"/>
+    <x v="44"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="2400"/>
   </r>
   <r>
-    <d v="2020-09-02T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="44"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="320"/>
   </r>
   <r>
-    <d v="2020-09-02T00:00:00"/>
+    <x v="44"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="6500"/>
   </r>
   <r>
-    <d v="2020-09-03T00:00:00"/>
+    <x v="45"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="5000"/>
   </r>
   <r>
-    <d v="2020-09-03T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="45"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="3500"/>
   </r>
   <r>
-    <d v="2020-09-04T00:00:00"/>
+    <x v="46"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="3500"/>
   </r>
   <r>
-    <d v="2020-09-04T00:00:00"/>
+    <x v="46"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="1500"/>
   </r>
   <r>
-    <d v="2020-09-04T00:00:00"/>
+    <x v="46"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="1800"/>
   </r>
   <r>
-    <d v="2020-09-07T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="1"/>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="8000"/>
   </r>
   <r>
-    <d v="2020-09-07T00:00:00"/>
+    <x v="47"/>
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="5100"/>
   </r>
   <r>
-    <d v="2020-09-07T00:00:00"/>
+    <x v="47"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="650"/>
   </r>
   <r>
-    <d v="2020-09-08T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="48"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="320"/>
   </r>
   <r>
-    <d v="2020-09-09T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="2"/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="3500"/>
   </r>
   <r>
-    <d v="2020-09-09T00:00:00"/>
+    <x v="49"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="2840"/>
   </r>
   <r>
-    <d v="2020-09-10T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="50"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="520"/>
   </r>
   <r>
-    <d v="2020-09-10T00:00:00"/>
+    <x v="50"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="380"/>
   </r>
   <r>
-    <d v="2020-09-10T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="50"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <n v="5550"/>
   </r>
   <r>
-    <d v="2020-09-11T00:00:00"/>
+    <x v="51"/>
     <x v="3"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="650"/>
   </r>
   <r>
-    <d v="2020-09-11T00:00:00"/>
+    <x v="51"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="2800"/>
   </r>
   <r>
-    <d v="2020-09-11T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="51"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="690"/>
   </r>
   <r>
-    <d v="2020-09-14T00:00:00"/>
+    <x v="52"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="6500"/>
   </r>
   <r>
-    <d v="2020-09-14T00:00:00"/>
+    <x v="52"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="5000"/>
   </r>
   <r>
-    <d v="2020-09-14T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="52"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="3500"/>
   </r>
   <r>
-    <d v="2020-09-14T00:00:00"/>
+    <x v="52"/>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="3500"/>
   </r>
   <r>
-    <d v="2020-09-15T00:00:00"/>
+    <x v="53"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="1500"/>
   </r>
   <r>
-    <d v="2020-09-15T00:00:00"/>
+    <x v="53"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="1800"/>
   </r>
   <r>
-    <d v="2020-09-15T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="2"/>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="8000"/>
   </r>
   <r>
-    <d v="2020-09-16T00:00:00"/>
+    <x v="54"/>
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="5100"/>
   </r>
   <r>
-    <d v="2020-09-16T00:00:00"/>
+    <x v="54"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
     <n v="650"/>
   </r>
   <r>
-    <d v="2020-09-16T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="54"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="320"/>
   </r>
   <r>
-    <d v="2020-09-16T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1"/>
+    <x v="54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
     <n v="3500"/>
   </r>
   <r>
-    <d v="2020-09-17T00:00:00"/>
+    <x v="55"/>
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="0"/>
     <n v="2840"/>
   </r>
   <r>
-    <d v="2020-09-17T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4"/>
+    <x v="55"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="520"/>
   </r>
   <r>
-    <d v="2020-09-17T00:00:00"/>
+    <x v="55"/>
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="380"/>
   </r>
   <r>
-    <d v="2020-09-17T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="3"/>
+    <x v="55"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="5550"/>
   </r>
   <r>
-    <d v="2020-09-18T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="2"/>
+    <x v="56"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
     <n v="8000"/>
   </r>
   <r>
-    <d v="2020-09-18T00:00:00"/>
+    <x v="56"/>
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="2"/>
+    <x v="2"/>
     <n v="5100"/>
   </r>
   <r>
-    <d v="2020-09-18T00:00:00"/>
+    <x v="56"/>
     <x v="2"/>
     <x v="3"/>
     <x v="0"/>
-    <n v="3"/>
+    <x v="3"/>
     <n v="650"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C141B0E-E0EC-B945-89A2-74E23F977219}" name="Tabella pivot12" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{471D7700-18BD-2E4F-AC31-BAEC7B1A43D8}" name="Tabella pivot13" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="K3:O8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="165" showAll="0">
+      <items count="58">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somma di Fatturato " fld="5" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="35">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C141B0E-E0EC-B945-89A2-74E23F977219}" name="Tabella pivot12" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="165" showAll="0"/>
@@ -9499,8 +11124,13 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Somma di Fatturato " fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Somma di Fatturato " fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -9567,6 +11197,7 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="FiltroDati_Settore" xr10:uid="{7217F0EF-DDC9-AA4C-ABE1-29BDE12C9914}" sourceName="Settore">
   <pivotTables>
     <pivotTable tabId="7" name="Tabella pivot12"/>
+    <pivotTable tabId="7" name="Tabella pivot13"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="421687324">
@@ -9579,9 +11210,28 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="FiltroDati_Venditore" xr10:uid="{1BAB697C-BFAA-3E4F-8056-FCFA0984F309}" sourceName="Venditore">
+  <pivotTables>
+    <pivotTable tabId="7" name="Tabella pivot13"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="421687324">
+      <items count="4">
+        <i x="0" s="1"/>
+        <i x="3"/>
+        <i x="2"/>
+        <i x="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Settore" xr10:uid="{2C16A850-2681-6840-B6E2-D805312E758C}" cache="FiltroDati_Settore" caption="Settore" rowHeight="230716"/>
+  <slicer name="Venditore" xr10:uid="{0862AC42-69CD-1645-9771-FFE56446DC67}" cache="FiltroDati_Venditore" caption="Venditore" rowHeight="230716"/>
 </slicers>
 </file>
 
@@ -9912,7 +11562,7 @@
   <dimension ref="B2:N162"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G162"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13184,31 +14834,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70A202B-F04F-2F4D-9638-E804223DBE4A}">
-  <dimension ref="A3:F9"/>
+  <dimension ref="A3:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K3" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="44" t="s">
         <v>74</v>
       </c>
@@ -13227,8 +14892,23 @@
       <c r="F4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K4" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -13245,8 +14925,21 @@
       <c r="F5" s="45">
         <v>22298</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K5" s="13">
+        <v>3</v>
+      </c>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45">
+        <v>2850</v>
+      </c>
+      <c r="N5" s="45">
+        <v>7464</v>
+      </c>
+      <c r="O5" s="45">
+        <v>10314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
@@ -13263,8 +14956,21 @@
       <c r="F6" s="45">
         <v>13811</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K6" s="13">
+        <v>4</v>
+      </c>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45">
+        <v>1270</v>
+      </c>
+      <c r="N6" s="45">
+        <v>650</v>
+      </c>
+      <c r="O6" s="45">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
@@ -13283,8 +14989,23 @@
       <c r="F7" s="45">
         <v>59210</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K7" s="13">
+        <v>5</v>
+      </c>
+      <c r="L7" s="45">
+        <v>4970</v>
+      </c>
+      <c r="M7" s="45">
+        <v>1390</v>
+      </c>
+      <c r="N7" s="45">
+        <v>3704</v>
+      </c>
+      <c r="O7" s="45">
+        <v>10064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
@@ -13303,8 +15024,23 @@
       <c r="F8" s="45">
         <v>112924</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K8" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="45">
+        <v>4970</v>
+      </c>
+      <c r="M8" s="45">
+        <v>5510</v>
+      </c>
+      <c r="N8" s="45">
+        <v>11818</v>
+      </c>
+      <c r="O8" s="45">
+        <v>22298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>75</v>
       </c>
@@ -13324,13 +15060,413 @@
         <v>208243</v>
       </c>
     </row>
+    <row r="12" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="K13" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+    </row>
+    <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="48"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="48"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="48"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="48"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="48"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="48"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="48"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="48"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="48"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="48"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="48"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="48"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="48"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="48"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="48"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="48"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="48"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="48"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="48"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="48"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="48"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="48"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="48"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="48"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="48"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="48"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="48"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="48"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="48"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="48"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="48"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="48"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="48"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="48"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="48"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="48"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="48"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="47"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="48"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="48"/>
+    </row>
+    <row r="35" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="51"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A13:H14"/>
+    <mergeCell ref="K13:Q14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -13341,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD024DC4-1ADE-344B-9BB6-49FBBB6BEACF}">
   <dimension ref="B10:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="B12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13834,8 +15970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A2957-AA6F-AD4C-A19E-3EDB12C78799}">
   <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Week4/Day3/day3-soluzioni-esercizi.xlsx
+++ b/Week4/Day3/day3-soluzioni-esercizi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D6618-7B22-3445-8D43-FBFD0585FED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733BF475-8997-8A4A-B7D6-7F50066B8759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sol-ese-1-giorno3" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="80">
   <si>
     <t>Venditore</t>
   </si>
@@ -2727,6 +2727,575 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sol-2-ese-2-giorno3'!$C$17:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Snowboard EVIL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Giacche Snowboard ROUTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Giacche Snowboard MAIMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pantaloni Snowboard CARGO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pantaloni Snowboard FRANK</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scarponi SOLID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sol-2-ese-2-giorno3'!$D$17:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9160-0C4E-BFFB-8349EB6B5B6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sol-2-ese-2-giorno3'!$C$17:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Snowboard EVIL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Giacche Snowboard ROUTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Giacche Snowboard MAIMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pantaloni Snowboard CARGO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pantaloni Snowboard FRANK</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scarponi SOLID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sol-2-ese-2-giorno3'!$E$17:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9160-0C4E-BFFB-8349EB6B5B6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'sol-2-ese-2-giorno3'!$C$17:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Snowboard EVIL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Giacche Snowboard ROUTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Giacche Snowboard MAIMED</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pantaloni Snowboard CARGO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pantaloni Snowboard FRANK</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scarponi SOLID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'sol-2-ese-2-giorno3'!$F$17:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>_-"€"\ * #,##0.00_-;\-"€"\ * #,##0.00_-;_-"€"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1109.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9160-0C4E-BFFB-8349EB6B5B6C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -3266,7 +3835,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4431,6 +5000,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5949,6 +6558,525 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6456,7 +7584,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6964,7 +8092,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7472,7 +8600,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7975,7 +9103,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9100,6 +10228,42 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1265115</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>84016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>835269</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E95563B-2A92-B3BF-4165-0304C0346107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15477,8 +16641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD024DC4-1ADE-344B-9BB6-49FBBB6BEACF}">
   <dimension ref="B10:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15657,19 +16821,23 @@
       <c r="M19"/>
     </row>
     <row r="20" spans="2:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20" s="28"/>
+      <c r="B20" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" s="21" t="str">
         <f>IFERROR(_xlfn.CONCAT(VLOOKUP(B20,$H$17:$K$29,2,FALSE)," ",VLOOKUP(B20,$H$17:$K$29,3,FALSE)),"")</f>
-        <v/>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="23" t="str">
+        <v>Pantaloni Snowboard CARGO</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="23">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="24" t="str">
+        <v>168</v>
+      </c>
+      <c r="F20" s="24">
         <f t="shared" si="1"/>
-        <v/>
+        <v>504</v>
       </c>
       <c r="H20" s="25" t="s">
         <v>39</v>
@@ -15685,19 +16853,23 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="28"/>
+      <c r="B21" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="C21" s="21" t="str">
         <f t="shared" ref="C21:C24" si="2">IFERROR(_xlfn.CONCAT(VLOOKUP(B21,$H$17:$K$29,2,FALSE)," ",VLOOKUP(B21,$H$17:$K$29,3,FALSE)),"")</f>
-        <v/>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="23" t="str">
+        <v>Pantaloni Snowboard FRANK</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="23">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="24" t="str">
+        <v>140.5</v>
+      </c>
+      <c r="F21" s="24">
         <f t="shared" si="1"/>
-        <v/>
+        <v>281</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="25" t="s">
@@ -15716,19 +16888,23 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="2:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="28"/>
+      <c r="B22" s="28" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="23" t="str">
+        <v>Scarponi SOLID</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="24" t="str">
+        <v>195.5</v>
+      </c>
+      <c r="F22" s="24">
         <f t="shared" si="1"/>
-        <v/>
+        <v>195.5</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="25" t="s">
@@ -15823,7 +16999,7 @@
       </c>
       <c r="F26" s="24">
         <f>SUM(F17:F24)</f>
-        <v>5331.5</v>
+        <v>6312</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="25" t="s">
@@ -15846,7 +17022,7 @@
       </c>
       <c r="F27" s="24">
         <f>0.22*F26</f>
-        <v>1172.93</v>
+        <v>1388.64</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="25" t="s">
@@ -15883,7 +17059,7 @@
       </c>
       <c r="F29" s="24">
         <f>F26+F27</f>
-        <v>6504.43</v>
+        <v>7700.64</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="25" t="s">
@@ -15970,7 +17146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A2957-AA6F-AD4C-A19E-3EDB12C78799}">
   <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="K7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>

--- a/Week4/Day3/day3-soluzioni-esercizi.xlsx
+++ b/Week4/Day3/day3-soluzioni-esercizi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733BF475-8997-8A4A-B7D6-7F50066B8759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058865FD-F510-DD45-8A32-01FC490BBE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7060" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sol-ese-1-giorno3" sheetId="1" r:id="rId1"/>
@@ -15,22 +15,22 @@
     <sheet name="Grafici-2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$68</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$162</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$162</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'sol-ese-1-giorno3'!$E$6:$E$155</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$155</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'sol-ese-1-giorno3'!$C$6:$C$155</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$155</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$162</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$162</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'sol-ese-1-giorno3'!$D$6:$D$155</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'sol-ese-1-giorno3'!$G$6:$G$155</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">'Grafici-2'!$N$10:$N$21</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">'Grafici-2'!$L$10:$M$21</definedName>
@@ -50,11 +50,11 @@
     <definedName name="_xlchart.v1.7" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'sol-2-ese-2-giorno3'!$J$17:$J$29</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'sol-2-ese-2-giorno3'!$K$17:$K$29</definedName>
-    <definedName name="_xlcn.WorksheetConnection_PivorbaseB2G1591" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$162</definedName>
+    <definedName name="_xlcn.WorksheetConnection_PivorbaseB2G1591" hidden="1">'sol-ese-1-giorno3'!$B$5:$G$155</definedName>
     <definedName name="codici">#REF!</definedName>
     <definedName name="FiltroDati_Settore">#N/A</definedName>
     <definedName name="FiltroDati_Venditore">#N/A</definedName>
-    <definedName name="tabella">'sol-ese-1-giorno3'!$B$27:$G$81</definedName>
+    <definedName name="tabella">'sol-ese-1-giorno3'!$B$20:$G$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="80">
   <si>
     <t>Venditore</t>
   </si>
@@ -609,7 +609,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -725,46 +725,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Euro" xfId="2" xr:uid="{DF3D080B-F924-F048-BD09-E0DCB8FB97A0}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -4417,10 +4387,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4493,10 +4463,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4629,10 +4599,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9727,7 +9697,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>15869</xdr:rowOff>
     </xdr:to>
@@ -9765,8 +9735,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6489700" y="2946400"/>
-              <a:ext cx="1828800" cy="2428869"/>
+              <a:off x="5403850" y="2952750"/>
+              <a:ext cx="1831975" cy="2428869"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9879,7 +9849,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16814800" y="2895600"/>
+              <a:off x="17576800" y="2901950"/>
               <a:ext cx="1828800" cy="2428869"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10588,7 +10558,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Autore" refreshedDate="44853.735732754627" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="157" xr:uid="{402FAD62-3C92-2741-987B-602B8F3317AC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B5:G162" sheet="sol-ese-1-giorno3"/>
+    <worksheetSource ref="B5:G155" sheet="sol-ese-1-giorno3"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Data" numFmtId="165">
@@ -12097,10 +12067,10 @@
     <dataField name="Somma di Fatturato " fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="35">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -12291,7 +12261,7 @@
     <dataField name="Somma di Fatturato " fld="5" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="36">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12723,10 +12693,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:N162"/>
+  <dimension ref="B2:N155"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12742,7 +12712,8 @@
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="42" x14ac:dyDescent="0.2">
@@ -12764,16 +12735,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="9">
-        <f>SUMIF(C6:C162,I3,G6:G162)</f>
-        <v>98810</v>
+        <f>SUMIF(C6:C155,I3,G6:G155)</f>
+        <v>93070</v>
       </c>
       <c r="K3" s="2">
-        <f>COUNTIF(C6:C162,I3)</f>
-        <v>35</v>
+        <f>COUNTIF(C6:C155,I3)</f>
+        <v>33</v>
       </c>
       <c r="L3" s="10">
-        <f>AVERAGEIF(C6:C162,I3,G6:G162)</f>
-        <v>2823.1428571428573</v>
+        <f>AVERAGEIF(C6:C155,I3,G6:G155)</f>
+        <v>2820.3030303030305</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.2">
@@ -12843,15 +12814,15 @@
         <v>13</v>
       </c>
       <c r="L6" s="10">
-        <f>SUMIFS(G6:G162,C6:C162,I6,D6:D162,J6,E6:E162,K6)</f>
-        <v>11818</v>
+        <f>SUMIFS(G6:G155,C6:C155,I6,D6:D155,J6,E6:E155,K6)</f>
+        <v>11608</v>
       </c>
       <c r="M6" s="2">
-        <f>COUNTIFS(C6:C162,"Neri",D6:D162,"Veneto",E6:E162,"Cancelleria")</f>
+        <f>COUNTIFS(C6:C155,"Neri",D6:D155,"Veneto",E6:E155,"Cancelleria")</f>
         <v>5</v>
       </c>
       <c r="N6" s="10">
-        <f>AVERAGEIFS(G6:G162,C6:C162,"Neri",D6:D162,"Veneto",E6:E162,"Cancelleria")</f>
+        <f>AVERAGEIFS(G6:G155,C6:C155,"Neri",D6:D155,"Veneto",E6:E155,"Cancelleria")</f>
         <v>1257.5999999999999</v>
       </c>
     </row>
@@ -12914,6 +12885,7 @@
       <c r="G9" s="4">
         <v>2240</v>
       </c>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -12957,13 +12929,13 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
-        <v>44011</v>
+        <v>44019</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>13</v>
@@ -12972,35 +12944,35 @@
         <v>5</v>
       </c>
       <c r="G12" s="4">
-        <v>840</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
-        <v>44013</v>
+        <v>44019</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>6420</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
-        <v>44014</v>
+        <v>44020</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
@@ -13009,41 +12981,41 @@
         <v>13</v>
       </c>
       <c r="F14" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="4">
-        <v>2840</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
-        <v>44015</v>
+        <v>44021</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4">
-        <v>1420</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
-        <v>44018</v>
+        <v>44022</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -13052,215 +13024,215 @@
         <v>4</v>
       </c>
       <c r="G16" s="4">
-        <v>210</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
-        <v>44018</v>
+        <v>44025</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4">
-        <v>2900</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
-        <v>44018</v>
+        <v>44025</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
-        <v>44019</v>
+        <v>44026</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" s="4">
-        <v>1500</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
-        <v>44019</v>
+        <v>44027</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4">
-        <v>5120</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
-        <v>44020</v>
+        <v>44027</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
-        <v>1204</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
-        <v>44021</v>
+        <v>44027</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4">
-        <v>3400</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
-        <v>44022</v>
+        <v>44028</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4">
-        <v>3540</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
-        <v>44025</v>
+        <v>44028</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4">
-        <v>1504</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
-        <v>44025</v>
+        <v>44028</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4">
-        <v>330</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
-        <v>44026</v>
+        <v>44029</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4">
-        <v>6240</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
-        <v>44027</v>
+        <v>44029</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>6</v>
@@ -13269,21 +13241,21 @@
         <v>13</v>
       </c>
       <c r="F27" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4">
-        <v>1260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
-        <v>44027</v>
+        <v>44029</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>12</v>
@@ -13292,38 +13264,38 @@
         <v>1</v>
       </c>
       <c r="G28" s="4">
-        <v>4800</v>
+        <v>10160</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
-        <v>44027</v>
+        <v>44029</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" s="4">
-        <v>1520</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
-        <v>44028</v>
+        <v>44030</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>13</v>
@@ -13332,18 +13304,18 @@
         <v>3</v>
       </c>
       <c r="G30" s="4">
-        <v>985</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
-        <v>44028</v>
+        <v>44032</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>12</v>
@@ -13352,35 +13324,35 @@
         <v>2</v>
       </c>
       <c r="G31" s="4">
-        <v>1680</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
-        <v>44028</v>
+        <v>44032</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4">
-        <v>1200</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
@@ -13392,52 +13364,52 @@
         <v>3</v>
       </c>
       <c r="G33" s="4">
-        <v>750</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="4">
-        <v>280</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" s="4">
-        <v>10160</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
@@ -13449,18 +13421,18 @@
         <v>13</v>
       </c>
       <c r="F36" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" s="4">
-        <v>1650</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
-        <v>44030</v>
+        <v>44034</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>6</v>
@@ -13469,55 +13441,55 @@
         <v>13</v>
       </c>
       <c r="F37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" s="4">
-        <v>302</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G38" s="4">
-        <v>2240</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39" s="4">
-        <v>6420</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
-        <v>44032</v>
+        <v>44034</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>2</v>
@@ -13526,58 +13498,58 @@
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" s="4">
-        <v>840</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
-        <v>44033</v>
+        <v>44035</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G41" s="4">
-        <v>1420</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
-        <v>44033</v>
+        <v>44035</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G42" s="4">
-        <v>2840</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
-        <v>44033</v>
+        <v>44035</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
@@ -13589,35 +13561,35 @@
         <v>13</v>
       </c>
       <c r="F43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" s="4">
-        <v>350</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
-        <v>44034</v>
+        <v>44036</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" s="4">
-        <v>440</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
-        <v>44034</v>
+        <v>44036</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
@@ -13629,121 +13601,121 @@
         <v>13</v>
       </c>
       <c r="F45" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45" s="4">
-        <v>1500</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
-        <v>44034</v>
+        <v>44036</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F46" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="4">
-        <v>2900</v>
+        <v>840</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
-        <v>44034</v>
+        <v>44036</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="4">
-        <v>5120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
-        <v>44035</v>
+        <v>44037</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" s="4">
-        <v>1204</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
-        <v>44035</v>
+        <v>44037</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G49" s="4">
-        <v>3400</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
-        <v>44035</v>
+        <v>44039</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4">
-        <v>3540</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>12</v>
@@ -13752,72 +13724,72 @@
         <v>1</v>
       </c>
       <c r="G51" s="4">
-        <v>6240</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G52" s="4">
-        <v>1504</v>
+        <v>750</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G53" s="4">
-        <v>840</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" s="4">
-        <v>210</v>
+        <v>920</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
-        <v>44037</v>
+        <v>44040</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>3</v>
@@ -13826,281 +13798,281 @@
         <v>7</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4">
-        <v>1390</v>
+        <v>10160</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
-        <v>44037</v>
+        <v>44040</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" s="4">
-        <v>490</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F57" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G57" s="4">
-        <v>11360</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="4">
-        <v>3440</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G59" s="4">
-        <v>750</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="4">
-        <v>2540</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2">
         <v>2</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="2">
-        <v>4</v>
-      </c>
       <c r="G61" s="4">
-        <v>920</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" s="4">
-        <v>10160</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63" s="4">
-        <v>1580</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F64" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G64" s="4">
-        <v>2548</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
-        <v>44040</v>
+        <v>44043</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" s="4">
-        <v>2555</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
-        <v>44040</v>
+        <v>44043</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G66" s="4">
-        <v>1560</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67" s="4">
-        <v>7400</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="2">
         <v>5</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="2">
-        <v>2</v>
-      </c>
       <c r="G68" s="4">
-        <v>5800</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>6</v>
@@ -14112,32 +14084,32 @@
         <v>5</v>
       </c>
       <c r="G69" s="4">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G70" s="4">
-        <v>460</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>2</v>
@@ -14152,58 +14124,58 @@
         <v>3</v>
       </c>
       <c r="G71" s="4">
-        <v>700</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G72" s="4">
-        <v>8480</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F73" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G73" s="4">
-        <v>2800</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>13</v>
@@ -14212,95 +14184,95 @@
         <v>4</v>
       </c>
       <c r="G74" s="4">
-        <v>4560</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F75" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G75" s="4">
-        <v>1590</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F76" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G76" s="4">
-        <v>2500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
-        <v>44043</v>
+        <v>44047</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" s="4">
-        <v>2555</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
-        <v>44043</v>
+        <v>44048</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G78" s="4">
-        <v>1220</v>
+        <v>550</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
-        <v>44046</v>
+        <v>44048</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>7</v>
@@ -14309,121 +14281,121 @@
         <v>13</v>
       </c>
       <c r="F79" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G79" s="4">
-        <v>1580</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
-        <v>44046</v>
+        <v>44049</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G80" s="4">
-        <v>10192</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
-        <v>44046</v>
+        <v>44049</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G81" s="4">
-        <v>460</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
-        <v>44047</v>
+        <v>44049</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F82" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G82" s="4">
-        <v>5844</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
-        <v>44047</v>
+        <v>44050</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="4">
-        <v>6000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
-        <v>44047</v>
+        <v>44050</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2">
         <v>2</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="2">
-        <v>4</v>
-      </c>
       <c r="G84" s="4">
-        <v>700</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>13</v>
@@ -14432,55 +14404,55 @@
         <v>5</v>
       </c>
       <c r="G85" s="4">
-        <v>550</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G86" s="4">
-        <v>2800</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
-        <v>44049</v>
+        <v>44053</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F87" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G87" s="4">
-        <v>1590</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
-        <v>44049</v>
+        <v>44053</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>6</v>
@@ -14489,21 +14461,21 @@
         <v>13</v>
       </c>
       <c r="F88" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G88" s="4">
-        <v>2800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
-        <v>44049</v>
+        <v>44053</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>13</v>
@@ -14512,75 +14484,75 @@
         <v>5</v>
       </c>
       <c r="G89" s="4">
-        <v>1590</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
-        <v>44050</v>
+        <v>44054</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="2">
         <v>5</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="2">
-        <v>1</v>
-      </c>
       <c r="G90" s="4">
-        <v>8000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91" s="4">
-        <v>8800</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
-        <v>44050</v>
+        <v>44056</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2">
         <v>1</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="2">
-        <v>5</v>
-      </c>
       <c r="G92" s="4">
-        <v>2500</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
-        <v>44050</v>
+        <v>44057</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>6</v>
@@ -14589,21 +14561,21 @@
         <v>13</v>
       </c>
       <c r="F93" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G93" s="4">
-        <v>1220</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
-        <v>44053</v>
+        <v>44061</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>12</v>
@@ -14612,38 +14584,38 @@
         <v>1</v>
       </c>
       <c r="G94" s="4">
-        <v>5800</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
-        <v>44053</v>
+        <v>44061</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1500</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
-        <v>44053</v>
+        <v>44061</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>13</v>
@@ -14652,118 +14624,118 @@
         <v>5</v>
       </c>
       <c r="G96" s="4">
-        <v>9500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
-        <v>44054</v>
+        <v>44061</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G97" s="4">
-        <v>3200</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F98" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G98" s="4">
-        <v>2800</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
-        <v>44056</v>
+        <v>44062</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F99" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G99" s="4">
-        <v>7700</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
-        <v>44057</v>
+        <v>44062</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G100" s="4">
-        <v>2500</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F101" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G101" s="4">
-        <v>11360</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
-        <v>44061</v>
+        <v>44067</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>12</v>
@@ -14772,38 +14744,38 @@
         <v>1</v>
       </c>
       <c r="G102" s="4">
-        <v>8800</v>
+        <v>800</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
-        <v>44061</v>
+        <v>44067</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F103" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G103" s="4">
-        <v>750</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
-        <v>44061</v>
+        <v>44067</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>13</v>
@@ -14812,35 +14784,35 @@
         <v>4</v>
       </c>
       <c r="G104" s="4">
-        <v>2540</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
-        <v>44062</v>
+        <v>44068</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" s="4">
-        <v>5400</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
-        <v>44062</v>
+        <v>44068</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>6</v>
@@ -14849,38 +14821,38 @@
         <v>13</v>
       </c>
       <c r="F106" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G106" s="4">
-        <v>6840</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G107" s="4">
-        <v>3260</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>6</v>
@@ -14889,38 +14861,38 @@
         <v>13</v>
       </c>
       <c r="F108" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G108" s="4">
-        <v>3500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F109" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G109" s="4">
-        <v>800</v>
+        <v>520</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
-        <v>44067</v>
+        <v>44070</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>6</v>
@@ -14929,35 +14901,35 @@
         <v>13</v>
       </c>
       <c r="F110" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G110" s="4">
-        <v>1500</v>
+        <v>690</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
-        <v>44067</v>
+        <v>44070</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F111" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G111" s="4">
-        <v>1800</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
-        <v>44068</v>
+        <v>44070</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
@@ -14972,58 +14944,58 @@
         <v>2</v>
       </c>
       <c r="G112" s="4">
-        <v>7800</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
-        <v>44068</v>
+        <v>44070</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F113" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G113" s="4">
-        <v>110</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
-        <v>44069</v>
+        <v>44074</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F114" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" s="4">
-        <v>1850</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
-        <v>44069</v>
+        <v>44074</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>13</v>
@@ -15032,12 +15004,12 @@
         <v>5</v>
       </c>
       <c r="G115" s="4">
-        <v>2000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
-        <v>44069</v>
+        <v>44074</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>2</v>
@@ -15049,75 +15021,75 @@
         <v>13</v>
       </c>
       <c r="F116" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G116" s="4">
-        <v>520</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
-        <v>44070</v>
+        <v>44075</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F117" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117" s="4">
-        <v>690</v>
+        <v>650</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
-        <v>44070</v>
+        <v>44076</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F118" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G118" s="4">
-        <v>2500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
-        <v>44070</v>
+        <v>44076</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F119" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" s="4">
-        <v>7700</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
-        <v>44070</v>
+        <v>44076</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>2</v>
@@ -15132,95 +15104,95 @@
         <v>3</v>
       </c>
       <c r="G120" s="4">
-        <v>2800</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F121" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G121" s="4">
-        <v>8500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="1">
-        <v>44074</v>
+        <v>44077</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G122" s="4">
-        <v>250</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
-        <v>44074</v>
+        <v>44078</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F123" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G123" s="4">
-        <v>2540</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
-        <v>44075</v>
+        <v>44078</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F124" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G124" s="4">
-        <v>650</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
-        <v>44076</v>
+        <v>44078</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>5</v>
@@ -15229,107 +15201,107 @@
         <v>13</v>
       </c>
       <c r="F125" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G125" s="4">
-        <v>2400</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
-        <v>44076</v>
+        <v>44081</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G126" s="4">
-        <v>320</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
-        <v>44076</v>
+        <v>44081</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="2">
         <v>2</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="2">
-        <v>3</v>
-      </c>
       <c r="G127" s="4">
-        <v>6500</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
-        <v>44077</v>
+        <v>44081</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F128" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G128" s="4">
-        <v>5000</v>
+        <v>650</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
-        <v>44077</v>
+        <v>44082</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F129" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G129" s="4">
-        <v>3500</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F130" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G130" s="4">
         <v>3500</v>
@@ -15337,7 +15309,7 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1</v>
@@ -15349,21 +15321,21 @@
         <v>13</v>
       </c>
       <c r="F131" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G131" s="4">
-        <v>1500</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
-        <v>44078</v>
+        <v>44084</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>13</v>
@@ -15372,64 +15344,64 @@
         <v>3</v>
       </c>
       <c r="G132" s="4">
-        <v>1800</v>
+        <v>520</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="1">
-        <v>44081</v>
+        <v>44084</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="2">
         <v>3</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="2">
-        <v>1</v>
-      </c>
       <c r="G133" s="4">
-        <v>8000</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
-        <v>44081</v>
+        <v>44084</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F134" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G134" s="4">
-        <v>5100</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="1">
-        <v>44081</v>
+        <v>44085</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F135" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G135" s="4">
         <v>650</v>
@@ -15437,93 +15409,93 @@
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="1">
-        <v>44082</v>
+        <v>44085</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F136" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G136" s="4">
-        <v>320</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="1">
-        <v>44083</v>
+        <v>44085</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F137" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G137" s="4">
-        <v>3500</v>
+        <v>690</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="1">
-        <v>44083</v>
+        <v>44088</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F138" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G138" s="4">
-        <v>2840</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
-        <v>44084</v>
+        <v>44088</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F139" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G139" s="4">
-        <v>520</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
-        <v>44084</v>
+        <v>44088</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>13</v>
@@ -15532,55 +15504,55 @@
         <v>3</v>
       </c>
       <c r="G140" s="4">
-        <v>380</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="1">
-        <v>44084</v>
+        <v>44088</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="2">
         <v>2</v>
       </c>
-      <c r="D141" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="2">
-        <v>5</v>
-      </c>
       <c r="G141" s="4">
-        <v>5550</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F142" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G142" s="4">
-        <v>650</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="1">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>5</v>
@@ -15592,78 +15564,78 @@
         <v>4</v>
       </c>
       <c r="G143" s="4">
-        <v>2800</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
-        <v>44085</v>
+        <v>44089</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F144" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G144" s="4">
-        <v>690</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F145" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G145" s="4">
-        <v>6500</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F146" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G146" s="4">
-        <v>5000</v>
+        <v>650</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>13</v>
@@ -15672,24 +15644,24 @@
         <v>3</v>
       </c>
       <c r="G147" s="4">
-        <v>3500</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
-        <v>44088</v>
+        <v>44090</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G148" s="4">
         <v>3500</v>
@@ -15697,7 +15669,7 @@
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>1</v>
@@ -15712,18 +15684,18 @@
         <v>4</v>
       </c>
       <c r="G149" s="4">
-        <v>1500</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>13</v>
@@ -15732,251 +15704,111 @@
         <v>4</v>
       </c>
       <c r="G150" s="4">
-        <v>1800</v>
+        <v>520</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="1">
-        <v>44089</v>
+        <v>44091</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="2">
         <v>3</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F151" s="2">
-        <v>2</v>
-      </c>
       <c r="G151" s="4">
-        <v>8000</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
-        <v>44090</v>
+        <v>44091</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F152" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G152" s="4">
-        <v>5100</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F153" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G153" s="4">
-        <v>650</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="2">
         <v>2</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="2">
-        <v>3</v>
-      </c>
       <c r="G154" s="4">
-        <v>320</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
-        <v>44090</v>
+        <v>44092</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="2">
         <v>3</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="2">
-        <v>1</v>
-      </c>
       <c r="G155" s="4">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B156" s="1">
-        <v>44091</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="2">
-        <v>4</v>
-      </c>
-      <c r="G156" s="4">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B157" s="1">
-        <v>44091</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" s="2">
-        <v>4</v>
-      </c>
-      <c r="G157" s="4">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B158" s="1">
-        <v>44091</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" s="2">
-        <v>3</v>
-      </c>
-      <c r="G158" s="4">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B159" s="1">
-        <v>44091</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" s="2">
-        <v>3</v>
-      </c>
-      <c r="G159" s="4">
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B160" s="1">
-        <v>44092</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160" s="2">
-        <v>2</v>
-      </c>
-      <c r="G160" s="4">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B161" s="1">
-        <v>44092</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="2">
-        <v>2</v>
-      </c>
-      <c r="G161" s="4">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B162" s="1">
-        <v>44092</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="2">
-        <v>3</v>
-      </c>
-      <c r="G162" s="4">
         <v>650</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:G144">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:G137">
     <sortCondition ref="B10"/>
   </sortState>
   <dataValidations count="3">
@@ -16000,19 +15832,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70A202B-F04F-2F4D-9638-E804223DBE4A}">
   <dimension ref="A3:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -16641,8 +16477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD024DC4-1ADE-344B-9BB6-49FBBB6BEACF}">
   <dimension ref="B10:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="B12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
